--- a/data/trans_orig/P14A10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA3F06A4-6E30-4451-AAA4-6579B0225143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0472913-6C27-44B4-A924-730D857E10BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{14B43E21-3ADB-4141-9482-E60E5C4E3C3B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E613049-F681-4794-A9E7-8ED457E67CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="188">
   <si>
     <t>Población que recibe medicación o terapia por trastornos cardíacos en 2012 (Tasa respuesta: 4,01%)</t>
   </si>
@@ -90,7 +90,7 @@
     <t>83,17%</t>
   </si>
   <si>
-    <t>34,01%</t>
+    <t>40,03%</t>
   </si>
   <si>
     <t>No</t>
@@ -114,7 +114,7 @@
     <t>16,83%</t>
   </si>
   <si>
-    <t>65,99%</t>
+    <t>59,97%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -129,13 +129,13 @@
     <t>96,37%</t>
   </si>
   <si>
-    <t>81,37%</t>
+    <t>82,76%</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>84,58%</t>
+    <t>84,6%</t>
   </si>
   <si>
     <t>5,54%</t>
@@ -147,13 +147,13 @@
     <t>3,63%</t>
   </si>
   <si>
-    <t>18,63%</t>
+    <t>17,24%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>15,42%</t>
+    <t>15,4%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -162,16 +162,16 @@
     <t>89,4%</t>
   </si>
   <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>93,02%</t>
   </si>
   <si>
-    <t>81,63%</t>
+    <t>81,8%</t>
   </si>
   <si>
     <t>97,81%</t>
@@ -180,19 +180,19 @@
     <t>91,34%</t>
   </si>
   <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
   </si>
   <si>
     <t>10,6%</t>
   </si>
   <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
   </si>
   <si>
     <t>6,98%</t>
@@ -201,16 +201,16 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>18,37%</t>
+    <t>18,2%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -219,49 +219,43 @@
     <t>86,47%</t>
   </si>
   <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>66,86%</t>
   </si>
   <si>
     <t>90,99%</t>
   </si>
   <si>
-    <t>71,85%</t>
+    <t>70,76%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>33,14%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>28,15%</t>
+    <t>29,24%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -270,103 +264,103 @@
     <t>95,27%</t>
   </si>
   <si>
-    <t>85,6%</t>
+    <t>85,65%</t>
   </si>
   <si>
     <t>89,78%</t>
   </si>
   <si>
-    <t>79,25%</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
   </si>
   <si>
     <t>96,04%</t>
   </si>
   <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>13,07%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -378,25 +372,25 @@
     <t>80,95%</t>
   </si>
   <si>
-    <t>25,23%</t>
+    <t>25,8%</t>
   </si>
   <si>
     <t>87,04%</t>
   </si>
   <si>
-    <t>39,88%</t>
+    <t>46,35%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>74,77%</t>
+    <t>74,2%</t>
   </si>
   <si>
     <t>12,96%</t>
   </si>
   <si>
-    <t>60,12%</t>
+    <t>53,65%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -405,46 +399,52 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>83,97%</t>
+    <t>84,01%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
+    <t>90,03%</t>
+  </si>
+  <si>
     <t>7,32%</t>
   </si>
   <si>
     <t>3,18%</t>
   </si>
   <si>
-    <t>16,03%</t>
+    <t>15,99%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
+    <t>9,97%</t>
+  </si>
+  <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
+    <t>67,68%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>88,43%</t>
   </si>
   <si>
-    <t>78,13%</t>
+    <t>79,43%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -453,19 +453,19 @@
     <t>10,17%</t>
   </si>
   <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
   </si>
   <si>
     <t>11,57%</t>
@@ -474,7 +474,7 @@
     <t>5,61%</t>
   </si>
   <si>
-    <t>21,87%</t>
+    <t>20,57%</t>
   </si>
   <si>
     <t>93,43%</t>
@@ -483,13 +483,10 @@
     <t>93,95%</t>
   </si>
   <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
+    <t>81,1%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>6,57%</t>
@@ -498,115 +495,112 @@
     <t>6,05%</t>
   </si>
   <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>89,51%</t>
   </si>
   <si>
-    <t>72,37%</t>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
   </si>
   <si>
     <t>88,52%</t>
   </si>
   <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
   </si>
   <si>
     <t>88,91%</t>
   </si>
   <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>27,63%</t>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
   </si>
   <si>
     <t>11,09%</t>
   </si>
   <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>97,57%</t>
   </si>
   <si>
     <t>90,85%</t>
   </si>
   <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
+    <t>2,43%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
   </si>
 </sst>
 </file>
@@ -1018,7 +1012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5829A490-B4BD-4E63-8FD9-78EAB2766631}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF7DCC1-6B38-411F-8DEA-37B1F9B6C589}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1613,7 +1607,7 @@
         <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -1622,10 +1616,10 @@
         <v>20505</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1637,13 +1631,13 @@
         <v>43372</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1658,13 +1652,13 @@
         <v>3579</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1673,13 +1667,13 @@
         <v>2030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1688,13 +1682,13 @@
         <v>5608</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,7 +1744,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1762,10 +1756,10 @@
         <v>39888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1777,13 +1771,13 @@
         <v>43638</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -1792,13 +1786,13 @@
         <v>83527</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1813,13 +1807,13 @@
         <v>1980</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1828,13 +1822,13 @@
         <v>4969</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1843,13 +1837,13 @@
         <v>6948</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,13 +1911,13 @@
         <v>118812</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
@@ -1932,13 +1926,13 @@
         <v>136596</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>239</v>
@@ -1947,13 +1941,13 @@
         <v>255408</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1968,13 +1962,13 @@
         <v>12377</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -1983,13 +1977,13 @@
         <v>11087</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -1998,13 +1992,13 @@
         <v>23464</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,7 +2054,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2081,7 +2075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93F600D6-25E8-4FF6-B497-F2B54C6675FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8944D3E-49D2-4C86-BCA3-A2FC3D24B98E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2098,7 +2092,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2220,10 +2214,10 @@
         <v>6316</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2235,10 +2229,10 @@
         <v>9976</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2271,13 +2265,13 @@
         <v>1486</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2286,13 +2280,13 @@
         <v>1486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,7 +2357,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2375,10 +2369,10 @@
         <v>34336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2390,10 +2384,10 @@
         <v>59137</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2417,7 +2411,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2426,13 +2420,13 @@
         <v>1126</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2441,13 +2435,13 @@
         <v>1126</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,10 +2694,10 @@
         <v>63040</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2727,7 +2721,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2736,13 +2730,13 @@
         <v>2166</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2751,13 +2745,13 @@
         <v>2166</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2813,7 +2807,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2825,13 +2819,13 @@
         <v>26548</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -2840,13 +2834,13 @@
         <v>40735</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -2855,13 +2849,13 @@
         <v>67282</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2876,10 +2870,10 @@
         <v>3110</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>165</v>
@@ -2983,10 +2977,10 @@
         <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>125</v>
@@ -2995,13 +2989,13 @@
         <v>144928</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>246</v>
@@ -3010,13 +3004,13 @@
         <v>265301</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3025,13 @@
         <v>7184</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>182</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -3046,13 +3040,13 @@
         <v>14600</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -3061,13 +3055,13 @@
         <v>21784</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3123,7 +3117,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A10-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0472913-6C27-44B4-A924-730D857E10BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FF28C73-6BA3-4A86-BA31-832D69CAAAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1E613049-F681-4794-A9E7-8ED457E67CD5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DBB336AC-0DD5-48B3-9565-91B8F60D6B97}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="190">
   <si>
     <t>Población que recibe medicación o terapia por trastornos cardíacos en 2012 (Tasa respuesta: 4,01%)</t>
   </si>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -75,7 +75,7 @@
     <t>68,53%</t>
   </si>
   <si>
-    <t>12,46%</t>
+    <t>12,25%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -90,7 +90,7 @@
     <t>83,17%</t>
   </si>
   <si>
-    <t>40,03%</t>
+    <t>42,28%</t>
   </si>
   <si>
     <t>No</t>
@@ -102,7 +102,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>87,54%</t>
+    <t>87,75%</t>
   </si>
   <si>
     <t>0%</t>
@@ -114,73 +114,73 @@
     <t>16,83%</t>
   </si>
   <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>94,46%</t>
   </si>
   <si>
-    <t>72,12%</t>
+    <t>72,01%</t>
   </si>
   <si>
     <t>96,37%</t>
   </si>
   <si>
-    <t>82,76%</t>
+    <t>81,74%</t>
   </si>
   <si>
     <t>95,59%</t>
   </si>
   <si>
-    <t>84,6%</t>
+    <t>86,29%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>27,88%</t>
+    <t>27,99%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>17,24%</t>
+    <t>18,26%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>89,4%</t>
   </si>
   <si>
-    <t>76,22%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>93,02%</t>
   </si>
   <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>84,07%</t>
+    <t>82,81%</t>
   </si>
   <si>
     <t>96,31%</t>
@@ -189,19 +189,19 @@
     <t>10,6%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>6,98%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
   </si>
   <si>
     <t>8,66%</t>
@@ -210,52 +210,58 @@
     <t>3,69%</t>
   </si>
   <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>86,47%</t>
   </si>
   <si>
-    <t>66,86%</t>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
   </si>
   <si>
     <t>90,99%</t>
   </si>
   <si>
-    <t>70,76%</t>
+    <t>71,67%</t>
   </si>
   <si>
     <t>88,55%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
+    <t>74,53%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
   </si>
   <si>
     <t>13,53%</t>
   </si>
   <si>
-    <t>33,14%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
   </si>
   <si>
     <t>9,01%</t>
   </si>
   <si>
-    <t>29,24%</t>
+    <t>28,33%</t>
   </si>
   <si>
     <t>11,45%</t>
   </si>
   <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -264,133 +270,133 @@
     <t>95,27%</t>
   </si>
   <si>
-    <t>85,65%</t>
+    <t>84,0%</t>
   </si>
   <si>
     <t>89,78%</t>
   </si>
   <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
   </si>
   <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>14,35%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
   </si>
   <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
   </si>
   <si>
     <t>90,57%</t>
   </si>
   <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
   </si>
   <si>
     <t>91,59%</t>
   </si>
   <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
   </si>
   <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por trastornos cardíacos en 2015 (Tasa respuesta: 4,05%)</t>
+    <t>Población que recibe medicación o terapia por trastornos cardíacos en 2016 (Tasa respuesta: 4,05%)</t>
   </si>
   <si>
     <t>80,95%</t>
   </si>
   <si>
-    <t>25,8%</t>
+    <t>27,76%</t>
   </si>
   <si>
     <t>87,04%</t>
   </si>
   <si>
-    <t>46,35%</t>
+    <t>49,66%</t>
   </si>
   <si>
     <t>19,05%</t>
   </si>
   <si>
-    <t>74,2%</t>
+    <t>72,24%</t>
   </si>
   <si>
     <t>12,96%</t>
   </si>
   <si>
-    <t>53,65%</t>
+    <t>50,34%</t>
   </si>
   <si>
     <t>92,68%</t>
@@ -399,13 +405,13 @@
     <t>96,82%</t>
   </si>
   <si>
-    <t>84,01%</t>
+    <t>85,62%</t>
   </si>
   <si>
     <t>98,13%</t>
   </si>
   <si>
-    <t>90,03%</t>
+    <t>88,82%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -414,193 +420,193 @@
     <t>3,18%</t>
   </si>
   <si>
-    <t>15,99%</t>
+    <t>14,38%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>9,97%</t>
+    <t>11,18%</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>67,68%</t>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>96,68%</t>
   </si>
   <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
   </si>
   <si>
     <t>3,32%</t>
   </si>
   <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
     <t>89,51%</t>
   </si>
   <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>88,52%</t>
   </si>
   <si>
-    <t>75,66%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>88,91%</t>
   </si>
   <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
   </si>
   <si>
     <t>11,48%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>11,09%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
   </si>
   <si>
     <t>94,37%</t>
   </si>
   <si>
-    <t>97,57%</t>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>90,85%</t>
   </si>
   <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>5,63%</t>
   </si>
   <si>
-    <t>2,43%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>9,15%</t>
   </si>
   <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1018,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF7DCC1-6B38-411F-8DEA-37B1F9B6C589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192FCDD6-2A98-47EB-8105-0DD83390487C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1607,7 +1613,7 @@
         <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>19</v>
@@ -1616,10 +1622,10 @@
         <v>20505</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -1631,13 +1637,13 @@
         <v>43372</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1652,13 +1658,13 @@
         <v>3579</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1667,13 +1673,13 @@
         <v>2030</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1682,13 +1688,13 @@
         <v>5608</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1744,7 +1750,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1756,10 +1762,10 @@
         <v>39888</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>13</v>
@@ -1771,13 +1777,13 @@
         <v>43638</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M16" s="7">
         <v>80</v>
@@ -1786,13 +1792,13 @@
         <v>83527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1807,13 +1813,13 @@
         <v>1980</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -1822,13 +1828,13 @@
         <v>4969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -1837,13 +1843,13 @@
         <v>6948</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,13 +1917,13 @@
         <v>118812</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H19" s="7">
         <v>128</v>
@@ -1926,13 +1932,13 @@
         <v>136596</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M19" s="7">
         <v>239</v>
@@ -1941,13 +1947,13 @@
         <v>255408</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,13 +1968,13 @@
         <v>12377</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H20" s="7">
         <v>11</v>
@@ -1977,13 +1983,13 @@
         <v>11087</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M20" s="7">
         <v>22</v>
@@ -1992,13 +1998,13 @@
         <v>23464</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2054,7 +2060,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2075,7 +2081,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8944D3E-49D2-4C86-BCA3-A2FC3D24B98E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75B4746-E03D-47B1-8161-DEA157DF43BF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2092,7 +2098,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2214,10 +2220,10 @@
         <v>6316</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>13</v>
@@ -2229,10 +2235,10 @@
         <v>9976</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>13</v>
@@ -2265,13 +2271,13 @@
         <v>1486</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -2280,13 +2286,13 @@
         <v>1486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,7 +2363,7 @@
         <v>13</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>
@@ -2369,10 +2375,10 @@
         <v>34336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2384,10 +2390,10 @@
         <v>59137</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>13</v>
@@ -2411,7 +2417,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2420,13 +2426,13 @@
         <v>1126</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -2435,13 +2441,13 @@
         <v>1126</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,13 +2515,13 @@
         <v>35970</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -2524,13 +2530,13 @@
         <v>29895</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M10" s="7">
         <v>63</v>
@@ -2539,13 +2545,13 @@
         <v>65865</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2560,13 +2566,13 @@
         <v>4074</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H11" s="7">
         <v>4</v>
@@ -2575,13 +2581,13 @@
         <v>4540</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M11" s="7">
         <v>8</v>
@@ -2590,13 +2596,13 @@
         <v>8614</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,7 +2673,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>15</v>
@@ -2679,10 +2685,10 @@
         <v>33646</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -2694,10 +2700,10 @@
         <v>63040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -2721,7 +2727,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2730,13 +2736,13 @@
         <v>2166</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -2745,13 +2751,13 @@
         <v>2166</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2807,7 +2813,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2977,10 +2983,10 @@
         <v>172</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H19" s="7">
         <v>125</v>
@@ -2989,13 +2995,13 @@
         <v>144928</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M19" s="7">
         <v>246</v>
@@ -3004,13 +3010,13 @@
         <v>265301</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3031,13 @@
         <v>7184</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -3040,13 +3046,13 @@
         <v>14600</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M20" s="7">
         <v>20</v>
@@ -3055,13 +3061,13 @@
         <v>21784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,7 +3123,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
